--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/payPassword/FindPayPwdExc.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/payPassword/FindPayPwdExc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="4620" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,7 +109,91 @@
     <t>testcaseDescription</t>
   </si>
   <si>
-    <t>设置支付密码</t>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPayPwd</t>
+  </si>
+  <si>
+    <t>secondPayPwd</t>
+  </si>
+  <si>
+    <t>it78912345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it78912345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findPayPwdSmsCode</t>
+  </si>
+  <si>
+    <t>0615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPayPwd_num</t>
+  </si>
+  <si>
+    <t>secondPayPwd_num</t>
+  </si>
+  <si>
+    <t>newPayPwd_letter</t>
+  </si>
+  <si>
+    <t>secondPayPwd_letter</t>
+  </si>
+  <si>
+    <t>newPayPwd_one</t>
+  </si>
+  <si>
+    <t>secondPayPwd_two</t>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ititit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ititit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it789123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234567</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找回支付密码</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mi'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置支付密码-异常</t>
     <rPh sb="0" eb="1">
       <t>she'zh</t>
     </rPh>
@@ -119,35 +203,9 @@
     <rPh sb="4" eb="5">
       <t>mi'm</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${MobileUtil.getUnRegisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${EnvUtils.getEnv()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>newPayPwd</t>
-  </si>
-  <si>
-    <t>secondPayPwd</t>
-  </si>
-  <si>
-    <t>it78912345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it78912345</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>findPayPwdSmsCode</t>
-  </si>
-  <si>
-    <t>0615</t>
+    <rPh sb="7" eb="8">
+      <t>yi'ch</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -516,10 +574,10 @@
     <col min="9" max="9" width="13.1640625" customWidth="1"/>
     <col min="10" max="10" width="19.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="13" width="17.33203125" customWidth="1"/>
+    <col min="12" max="19" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,36 +609,54 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -598,15 +674,33 @@
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
         <v>6</v>
       </c>
     </row>
